--- a/documents/Датасеты.xlsx
+++ b/documents/Датасеты.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Agression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\emotions_aggressive\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8307080-8C81-4ECE-B908-FF9FA5EC1B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F017EFA6-D415-49C2-B10B-6B6DD7A5DB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-9120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="D14:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
